--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958248.248607122</v>
+        <v>2958248.248607118</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500712</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500712</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177653</v>
+        <v>3940022.790763622</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177653</v>
+        <v>3940022.790763622</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.6350205</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D2" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E2" t="n">
         <v>404.3632896068686</v>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S6" t="n">
         <v>408.192915058951</v>
       </c>
       <c r="T6" t="n">
-        <v>391.1574709203184</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U6" t="n">
         <v>400.0036144771679</v>
@@ -1204,7 +1204,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
-        <v>590.8934891676897</v>
+        <v>590.8934891676915</v>
       </c>
       <c r="Y8" t="n">
         <v>511.3174326828064</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963203419</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C17" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500177</v>
       </c>
       <c r="D17" t="n">
         <v>410.3391557398498</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>67.808644398718</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.999312955469</v>
+        <v>481.9993129554617</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428884</v>
+        <v>449.4745782428811</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557397443</v>
+        <v>410.339155739737</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067631</v>
+        <v>404.3632896067559</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287079064</v>
+        <v>404.8896287078991</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611610272</v>
+        <v>397.8840054527326</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>347.8590406129624</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.008821068549</v>
+        <v>361.0088210685417</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118755</v>
+        <v>560.9649184118682</v>
       </c>
       <c r="U29" t="n">
-        <v>648.751427201877</v>
+        <v>648.7514272017643</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241667184</v>
+        <v>628.4626798753134</v>
       </c>
       <c r="W29" t="n">
-        <v>638.373475980842</v>
+        <v>638.3734759808348</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605622</v>
+        <v>592.2818334605549</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326827009</v>
+        <v>511.3174326826936</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822407976</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151016879</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3255,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3839,7 +3839,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H42" t="n">
         <v>301.8178796392513</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S45" t="n">
         <v>408.192915058951</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4336,52 +4336,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O2" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J4" t="n">
         <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4533,13 +4533,13 @@
         <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="X4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
     </row>
     <row r="5">
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4576,49 +4576,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346479</v>
       </c>
       <c r="L5" t="n">
-        <v>2332.601309399844</v>
+        <v>2819.179224663062</v>
       </c>
       <c r="M5" t="n">
-        <v>2814.780508913348</v>
+        <v>3301.358424176565</v>
       </c>
       <c r="N5" t="n">
-        <v>3379.82357278602</v>
+        <v>3866.401488049237</v>
       </c>
       <c r="O5" t="n">
-        <v>4289.978455726764</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P5" t="n">
-        <v>5987.71793717156</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4676,10 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R6" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S6" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T6" t="n">
         <v>4762.564674070616</v>
@@ -4758,16 +4758,16 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="T7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="U7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="V7" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="W7" t="n">
         <v>290.6133856211738</v>
@@ -4816,40 +4816,40 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2332.601309399844</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M8" t="n">
-        <v>2814.780508913348</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N8" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O8" t="n">
-        <v>4289.978455726764</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
         <v>3583.51196363841</v>
@@ -4944,37 +4944,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
         <v>457.4949902104935</v>
@@ -5007,13 +5007,13 @@
         <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546375</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048402</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351584</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071918</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361345327</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003235777</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5050,49 +5050,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>3042.307675747712</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>3524.486875261216</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396864</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337608</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852435022</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237243</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000246</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183424</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464251</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922543163</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766819099</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073909051</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665952</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430794</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5208,40 +5208,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U13" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5290,46 +5290,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.601309399844</v>
+        <v>2631.383042915616</v>
       </c>
       <c r="M14" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N14" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O14" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="15">
@@ -5418,25 +5418,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H16" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5521,52 +5521,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>974.1471760311933</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1713.790319599033</v>
       </c>
       <c r="L17" t="n">
-        <v>2332.601309399844</v>
+        <v>2631.383042915616</v>
       </c>
       <c r="M17" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N17" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O17" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5682,40 +5682,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5770,40 +5770,40 @@
         <v>2814.780508913348</v>
       </c>
       <c r="N20" t="n">
-        <v>3379.82357278602</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.978455726764</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P20" t="n">
-        <v>5987.71793717156</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5919,49 +5919,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -6004,43 +6004,43 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N23" t="n">
-        <v>4118.58008885974</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800483</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897897</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6232,52 +6232,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6393,49 +6393,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546873</v>
+        <v>2580.16171551815</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049006</v>
+        <v>2126.14699002029</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352295</v>
+        <v>1711.662994323586</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859072736</v>
+        <v>1303.215227044035</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361354571</v>
+        <v>894.2358041067628</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682959217</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6469,52 +6469,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>3240.782198133642</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N29" t="n">
-        <v>3866.401488049235</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O29" t="n">
-        <v>4776.556370989979</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183284</v>
+        <v>6683.344625183293</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464217</v>
+        <v>6116.713394464234</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543129</v>
+        <v>5461.40892254326</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819171</v>
+        <v>4826.598134790418</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909229</v>
+        <v>4181.776441880484</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666237</v>
+        <v>3583.511963637499</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431186</v>
+        <v>3067.029708402455</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150262</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213288</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374526</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117385</v>
+        <v>3071.633876117288</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215519</v>
+        <v>4014.060204215534</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182257</v>
+        <v>4993.313206182384</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368745</v>
+        <v>5699.926775368871</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250029</v>
+        <v>5925.707874250051</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373222</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6715,43 +6715,43 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M32" t="n">
-        <v>2814.780508913348</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N32" t="n">
-        <v>3866.401488049235</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O32" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6867,46 +6867,46 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y34" t="n">
         <v>140.96</v>
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -6946,49 +6946,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3042.307675747712</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3524.486875261216</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7077,25 +7077,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
         <v>140.96</v>
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7180,52 +7180,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399844</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M38" t="n">
-        <v>3077.533789260046</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="39">
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E40" t="n">
         <v>140.96</v>
@@ -7341,49 +7341,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7417,52 +7417,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M41" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N41" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.978455726764</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G42" t="n">
         <v>555.8565327448407</v>
@@ -7523,25 +7523,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="43">
@@ -7578,46 +7578,46 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y43" t="n">
         <v>140.96</v>
@@ -7630,22 +7630,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7654,52 +7654,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L44" t="n">
-        <v>2332.601309399844</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M44" t="n">
-        <v>2814.780508913348</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N44" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O44" t="n">
-        <v>4289.978455726764</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P44" t="n">
-        <v>5987.71793717156</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="45">
@@ -7709,25 +7709,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
         <v>140.96</v>
@@ -7757,28 +7757,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7815,49 +7815,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>265.4073538855548</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>491.49284370022</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
-        <v>491.4928437002173</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8464,22 +8464,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>265.4073538855553</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>746.218703104767</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8698,19 +8698,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
-        <v>645.1956588514913</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>301.7997308240108</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>301.7997308240108</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>301.7997308240109</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>491.4928437002175</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9418,16 +9418,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>870.5779326741233</v>
+        <v>265.4073538855546</v>
       </c>
       <c r="Q20" t="n">
-        <v>491.4928437002173</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
-        <v>746.2187031047674</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>301.7997308240109</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9880,25 +9880,25 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>265.4073538855546</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>61.18810711406104</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>265.4073538855546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>301.7997308240108</v>
       </c>
       <c r="P32" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
-        <v>645.1956588512423</v>
+        <v>301.7997308240106</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>265.4073538855533</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>931.7660397881868</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>931.766039788187</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>746.218703104767</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11302,7 +11302,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>931.766039788187</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>491.4928437002173</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292733279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23676,10 +23676,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>158.5641654399917</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W19" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24624,10 +24624,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>137.5385800635563</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344291712656</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.38834429139763</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995724205</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957263025</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25143,13 +25143,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>287.4653528494624</v>
+        <v>122.2525643060359</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25350,7 +25350,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>39.8389833972746</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
         <v>168.0209277307011</v>
@@ -25377,7 +25377,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25408,13 +25408,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E40" t="n">
-        <v>280.9809048369565</v>
+        <v>115.7681162935301</v>
       </c>
       <c r="F40" t="n">
         <v>274.3828559677419</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25860,7 +25860,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y43" t="n">
-        <v>287.4653528494624</v>
+        <v>122.2525643060359</v>
       </c>
     </row>
     <row r="44">
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636738</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971103</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.8983387799</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784876</v>
+        <v>6197645.178066947</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769176</v>
+        <v>7353889.199056749</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959865</v>
+        <v>8510133.220046548</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150554</v>
+        <v>9666377.241036348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341243</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531926</v>
+        <v>11978865.28301609</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722615</v>
+        <v>13135109.30400589</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913303</v>
+        <v>14291353.3249957</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103993</v>
+        <v>15447597.34598552</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294684</v>
+        <v>16603841.36697534</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485375</v>
+        <v>17760085.38796516</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411308</v>
+        <v>913048.3542411318</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.3542411316</v>
       </c>
       <c r="D2" t="n">
         <v>913048.3542411316</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976828</v>
+        <v>817831.136797669</v>
       </c>
       <c r="F2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367977512</v>
+        <v>817831.1367977702</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="M2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="N2" t="n">
         <v>817831.1367976689</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976689</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620224.0000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163521</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715405</v>
+        <v>88773.85276715399</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722105</v>
+        <v>88471.49209722098</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850404</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259856608</v>
+        <v>13783.46259858035</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
     </row>
     <row r="5">
@@ -26527,25 +26527,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1393333.449580504</v>
+        <v>-1393333.449580503</v>
       </c>
       <c r="C6" t="n">
-        <v>651667.5014739775</v>
+        <v>651667.5014739776</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439105</v>
+        <v>651969.8621439106</v>
       </c>
       <c r="E6" t="n">
-        <v>665068.2741991788</v>
+        <v>665068.274199166</v>
       </c>
       <c r="F6" t="n">
-        <v>665068.2741991655</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="G6" t="n">
-        <v>665068.2741991658</v>
+        <v>665068.2741991659</v>
       </c>
       <c r="H6" t="n">
-        <v>665068.2741991655</v>
+        <v>665068.2741991659</v>
       </c>
       <c r="I6" t="n">
         <v>665068.2741991658</v>
@@ -26554,22 +26554,22 @@
         <v>44844.27419916564</v>
       </c>
       <c r="K6" t="n">
-        <v>665068.2741991851</v>
+        <v>665068.2741991899</v>
       </c>
       <c r="L6" t="n">
-        <v>665068.274199166</v>
+        <v>665068.2741991661</v>
       </c>
       <c r="M6" t="n">
-        <v>665068.2741991656</v>
+        <v>665068.2741991661</v>
       </c>
       <c r="N6" t="n">
         <v>665068.2741991659</v>
       </c>
       <c r="O6" t="n">
-        <v>665068.2741991655</v>
+        <v>665068.2741991656</v>
       </c>
       <c r="P6" t="n">
-        <v>665068.2741991658</v>
+        <v>665068.2741991659</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27729,7 +27729,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W4" t="n">
-        <v>226.3728098387097</v>
+        <v>377.5378458196933</v>
       </c>
       <c r="X4" t="n">
         <v>247.4436454301076</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27872,13 +27872,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27954,10 +27954,10 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>316.45975839138</v>
+        <v>400</v>
       </c>
       <c r="T7" t="n">
-        <v>198.7676812603561</v>
+        <v>266.3924756327198</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -27966,7 +27966,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W7" t="n">
-        <v>377.5378458196934</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X7" t="n">
         <v>247.4436454301076</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.38834429297799</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -28203,7 +28203,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W10" t="n">
-        <v>377.5378458196934</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X10" t="n">
         <v>247.4436454301076</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,28 +29744,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34828,22 +34828,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1184.755720492367</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -35025,7 +35025,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132381</v>
       </c>
       <c r="L5" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
-        <v>952.9277020862996</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35250,10 +35250,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.54024160861997</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>67.62479437236368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35262,7 +35262,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -35308,22 +35308,22 @@
         <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.861336683417</v>
+        <v>1192.268690568972</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1590.529135526397</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35499,7 +35499,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -35542,19 +35542,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
-        <v>1215.946228419847</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1221.148097430823</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
@@ -35782,19 +35782,19 @@
         <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>1228.661067507428</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
-        <v>1062.243413268573</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36013,16 +36013,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>463.4516620966183</v>
+        <v>765.2513929206292</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
-        <v>978.542540178503</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36262,16 +36262,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>1714.888365095753</v>
+        <v>1109.717786307185</v>
       </c>
       <c r="Q20" t="n">
-        <v>952.9277020862996</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36496,10 +36496,10 @@
         <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N23" t="n">
-        <v>1316.969272673123</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
@@ -36508,7 +36508,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>763.2345892100933</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36724,25 +36724,25 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1109.717786307185</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
@@ -36961,7 +36961,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
         <v>747.114286432161</v>
@@ -36973,13 +36973,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>631.9386766824168</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>1109.717786307185</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717436</v>
+        <v>422.1086156716381</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603012742</v>
+        <v>698.5532603011687</v>
       </c>
       <c r="L30" t="n">
         <v>956.4197244052909</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421645042</v>
+        <v>883.195042164617</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859577115</v>
+        <v>951.9457859578242</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464310483</v>
+        <v>989.1444464311611</v>
       </c>
       <c r="P30" t="n">
         <v>713.7510799863513</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417014</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37207,16 +37207,16 @@
         <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N32" t="n">
-        <v>1062.243413268573</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1221.148097430823</v>
       </c>
       <c r="P32" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
@@ -37438,16 +37438,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
-        <v>1215.946228419598</v>
+        <v>872.5503003923664</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37672,7 +37672,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
         <v>747.114286432161</v>
@@ -37681,10 +37681,10 @@
         <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>752.457050363839</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>1502.516609356543</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37909,7 +37909,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
         <v>747.114286432161</v>
@@ -37918,7 +37918,7 @@
         <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>1418.815736266472</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1590.529135526397</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38146,7 +38146,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K44" t="n">
         <v>747.114286432161</v>
@@ -38155,7 +38155,7 @@
         <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>1418.815736266472</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>952.9277020862996</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
